--- a/results/107.myeloid/distribution/myeloid_distribution.xlsx
+++ b/results/107.myeloid/distribution/myeloid_distribution.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4.837490551776266</v>
+        <v>5.437352245862884</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3.889304412864622</v>
+        <v>2.775636083269082</v>
       </c>
     </row>
     <row r="4">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>6.214039125431531</v>
+        <v>5.992509363295881</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2.127659574468085</v>
+        <v>1.796407185628742</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2.405498281786941</v>
+        <v>1.549053356282272</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>12.77591973244147</v>
+        <v>12.02445652173913</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>26.15083251714006</v>
+        <v>23.8716148445336</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>12.18697829716194</v>
+        <v>12.87477954144621</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>8.692365835222978</v>
+        <v>10.79590228526399</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>6.507105459985041</v>
+        <v>7.478797224363917</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>3.279631760644419</v>
+        <v>3.058676654182272</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>2.127659574468085</v>
+        <v>0.8982035928143712</v>
       </c>
     </row>
     <row r="14">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>27.89115646258503</v>
+        <v>23.08904649330181</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>18.92296185489903</v>
+        <v>19.19814957594449</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>28.88377445339471</v>
+        <v>25.71785268414482</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>32.15130023640662</v>
+        <v>26.94610778443114</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>34.87972508591065</v>
+        <v>35.62822719449225</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>20.8695652173913</v>
+        <v>22.48641304347826</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>17.18903036238981</v>
+        <v>15.59679037111334</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>22.20367278797996</v>
+        <v>25.04409171075838</v>
       </c>
     </row>
     <row r="26">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>9.599395313681027</v>
+        <v>27.97478329393223</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>27.89827973074046</v>
+        <v>41.017733230532</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>8.170310701956272</v>
+        <v>41.26092384519351</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>8.747044917257684</v>
+        <v>44.61077844311377</v>
       </c>
     </row>
     <row r="30">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>30.92783505154639</v>
+        <v>41.82444061962134</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>36.18729096989966</v>
+        <v>41.64402173913044</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>22.62487757100881</v>
+        <v>45.13540621865597</v>
       </c>
     </row>
     <row r="33">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>39.39899833055092</v>
+        <v>40.0352733686067</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>5.82010582010582</v>
+        <v>7.092198581560283</v>
       </c>
     </row>
     <row r="35">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>9.274495138369485</v>
+        <v>10.10023130300694</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>4.77560414269275</v>
+        <v>5.617977528089888</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>6.855791962174941</v>
+        <v>8.383233532934131</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>19.41580756013746</v>
+        <v>19.10499139414802</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>22.94314381270903</v>
+        <v>22.07880434782609</v>
       </c>
     </row>
     <row r="40">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>12.58570029382958</v>
+        <v>12.83851554663992</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>23.70617696160267</v>
+        <v>21.69312169312169</v>
       </c>
     </row>
     <row r="42">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>43.15948601662888</v>
+        <v>25.6107171000788</v>
       </c>
     </row>
     <row r="43">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>33.50785340314136</v>
+        <v>19.42945258288358</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>48.67663981588032</v>
+        <v>18.35205992509363</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>47.99054373522458</v>
+        <v>17.36526946107784</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>12.37113402061856</v>
+        <v>1.89328743545611</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>7.224080267558528</v>
+        <v>1.766304347826087</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>21.44955925563173</v>
+        <v>2.557673019057172</v>
       </c>
     </row>
     <row r="49">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>2.504173622704508</v>
+        <v>0.3527336860670194</v>
       </c>
     </row>
   </sheetData>
